--- a/output/SENTINEL_24119482000161.xlsx
+++ b/output/SENTINEL_24119482000161.xlsx
@@ -988,10 +988,10 @@
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5605374000000001</v>
+        <v>0.5602362000000001</v>
       </c>
       <c r="C55">
-        <v>0.002077696179378918</v>
+        <v>0.001884284728881802</v>
       </c>
     </row>
   </sheetData>

--- a/output/SENTINEL_24119482000161.xlsx
+++ b/output/SENTINEL_24119482000161.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SENTINEL FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,612 +383,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42551</v>
       </c>
       <c r="B2">
-        <v>-0.0008008999999999933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42582</v>
       </c>
       <c r="B3">
-        <v>0.002563799999999894</v>
-      </c>
-      <c r="C3">
         <v>0.003367396948215751</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42613</v>
       </c>
       <c r="B4">
-        <v>0.02724079999999995</v>
-      </c>
-      <c r="C4">
         <v>0.02461389489626509</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42643</v>
       </c>
       <c r="B5">
-        <v>0.05010190000000003</v>
-      </c>
-      <c r="C5">
         <v>0.02225485981475828</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42674</v>
       </c>
       <c r="B6">
-        <v>0.07906269999999993</v>
-      </c>
-      <c r="C6">
         <v>0.02757903780575943</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42704</v>
       </c>
       <c r="B7">
-        <v>0.1003807000000001</v>
-      </c>
-      <c r="C7">
         <v>0.0197560345659249</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42735</v>
       </c>
       <c r="B8">
-        <v>0.1221128</v>
-      </c>
-      <c r="C8">
         <v>0.01974961938172837</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42766</v>
       </c>
       <c r="B9">
-        <v>0.1521703999999999</v>
-      </c>
-      <c r="C9">
         <v>0.02678661182726016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42794</v>
       </c>
       <c r="B10">
-        <v>0.1632936</v>
-      </c>
-      <c r="C10">
         <v>0.00965412754918904</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42825</v>
       </c>
       <c r="B11">
-        <v>0.1850887000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01873568289209193</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42855</v>
       </c>
       <c r="B12">
-        <v>0.1828898000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.001855472927891344</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42886</v>
       </c>
       <c r="B13">
-        <v>0.1945414000000001</v>
-      </c>
-      <c r="C13">
         <v>0.009850114524615927</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42916</v>
       </c>
       <c r="B14">
-        <v>0.2105349000000001</v>
-      </c>
-      <c r="C14">
         <v>0.0133888201781871</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42947</v>
       </c>
       <c r="B15">
-        <v>0.2452706</v>
-      </c>
-      <c r="C15">
         <v>0.02869450521418249</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42978</v>
       </c>
       <c r="B16">
-        <v>0.2505892000000001</v>
-      </c>
-      <c r="C16">
         <v>0.004271039563609857</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43008</v>
       </c>
       <c r="B17">
-        <v>0.2799305000000001</v>
-      </c>
-      <c r="C17">
         <v>0.02346198096065444</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43039</v>
       </c>
       <c r="B18">
-        <v>0.2757708000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.003249942086699265</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43069</v>
       </c>
       <c r="B19">
-        <v>0.2890387000000001</v>
-      </c>
-      <c r="C19">
         <v>0.01039990882374786</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43100</v>
       </c>
       <c r="B20">
-        <v>0.3060057</v>
-      </c>
-      <c r="C20">
         <v>0.01316252180791766</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43131</v>
       </c>
       <c r="B21">
-        <v>0.3598771000000001</v>
-      </c>
-      <c r="C21">
         <v>0.04124897770354297</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43159</v>
       </c>
       <c r="B22">
-        <v>0.3625043999999999</v>
-      </c>
-      <c r="C22">
         <v>0.001932012826747265</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43190</v>
       </c>
       <c r="B23">
-        <v>0.3676533</v>
-      </c>
-      <c r="C23">
         <v>0.003778996970578596</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43220</v>
       </c>
       <c r="B24">
-        <v>0.3827678000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01105141193312664</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43251</v>
       </c>
       <c r="B25">
-        <v>0.3743301999999999</v>
-      </c>
-      <c r="C25">
         <v>-0.00610196448022593</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43281</v>
       </c>
       <c r="B26">
-        <v>0.405546</v>
-      </c>
-      <c r="C26">
         <v>0.02271346434794208</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43312</v>
       </c>
       <c r="B27">
-        <v>0.3999892</v>
-      </c>
-      <c r="C27">
         <v>-0.003953481422877547</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43343</v>
       </c>
       <c r="B28">
-        <v>0.4296568000000001</v>
-      </c>
-      <c r="C28">
         <v>0.02119130633293453</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43373</v>
       </c>
       <c r="B29">
-        <v>0.4439436999999999</v>
-      </c>
-      <c r="C29">
         <v>0.009993237537848199</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43404</v>
       </c>
       <c r="B30">
-        <v>0.4352750999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.0060034196624148</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43434</v>
       </c>
       <c r="B31">
-        <v>0.3980379999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.025944224908521</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
       <c r="B32">
-        <v>0.3538848000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.03158226028190925</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43496</v>
       </c>
       <c r="B33">
-        <v>0.3679867000000001</v>
-      </c>
-      <c r="C33">
         <v>0.01041587881036854</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43524</v>
       </c>
       <c r="B34">
-        <v>0.371324</v>
-      </c>
-      <c r="C34">
         <v>0.002439570501672206</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43555</v>
       </c>
       <c r="B35">
-        <v>0.3810184999999999</v>
-      </c>
-      <c r="C35">
         <v>0.007069445295203813</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43585</v>
       </c>
       <c r="B36">
-        <v>0.3807019</v>
-      </c>
-      <c r="C36">
         <v>-0.0002292510925812064</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43616</v>
       </c>
       <c r="B37">
-        <v>0.4022498999999999</v>
-      </c>
-      <c r="C37">
         <v>0.01560655489791096</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43646</v>
       </c>
       <c r="B38">
-        <v>0.4226212</v>
-      </c>
-      <c r="C38">
         <v>0.0145275817099364</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43677</v>
       </c>
       <c r="B39">
-        <v>0.4320694</v>
-      </c>
-      <c r="C39">
         <v>0.006641402504053762</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43708</v>
       </c>
       <c r="B40">
-        <v>0.4530642</v>
-      </c>
-      <c r="C40">
         <v>0.01466046268428056</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43738</v>
       </c>
       <c r="B41">
-        <v>0.4471947000000001</v>
-      </c>
-      <c r="C41">
         <v>-0.004039394818205588</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43769</v>
       </c>
       <c r="B42">
-        <v>0.4581983999999999</v>
-      </c>
-      <c r="C42">
         <v>0.007603468973455874</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43799</v>
       </c>
       <c r="B43">
-        <v>0.4481839999999999</v>
-      </c>
-      <c r="C43">
         <v>-0.006867652577317362</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43830</v>
       </c>
       <c r="B44">
-        <v>0.4574123999999999</v>
-      </c>
-      <c r="C44">
         <v>0.006372394668080927</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43861</v>
       </c>
       <c r="B45">
-        <v>0.4595227</v>
-      </c>
-      <c r="C45">
         <v>0.001447977250639498</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43890</v>
       </c>
       <c r="B46">
-        <v>0.4763672999999999</v>
-      </c>
-      <c r="C46">
         <v>0.01154117027436441</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43921</v>
       </c>
       <c r="B47">
-        <v>0.4791679</v>
-      </c>
-      <c r="C47">
         <v>0.00189695342073759</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43951</v>
       </c>
       <c r="B48">
-        <v>0.4970313</v>
-      </c>
-      <c r="C48">
         <v>0.01207665471918373</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43982</v>
       </c>
       <c r="B49">
-        <v>0.4825391000000001</v>
-      </c>
-      <c r="C49">
         <v>-0.009680625916104635</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44012</v>
       </c>
       <c r="B50">
-        <v>0.5000955</v>
-      </c>
-      <c r="C50">
         <v>0.01184211600220175</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44043</v>
       </c>
       <c r="B51">
-        <v>0.5140697999999999</v>
-      </c>
-      <c r="C51">
         <v>0.009315606906360241</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44074</v>
       </c>
       <c r="B52">
-        <v>0.5363614000000001</v>
-      </c>
-      <c r="C52">
         <v>0.01472296719741739</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44104</v>
       </c>
       <c r="B53">
-        <v>0.5343047999999999</v>
-      </c>
-      <c r="C53">
         <v>-0.00133861733313545</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44135</v>
       </c>
       <c r="B54">
-        <v>0.5573018000000001</v>
-      </c>
-      <c r="C54">
         <v>0.01498854725606025</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5602362000000001</v>
-      </c>
-      <c r="C55">
-        <v>0.001884284728881802</v>
+        <v>-0.005332556605277206</v>
       </c>
     </row>
   </sheetData>
